--- a/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.968188457679048</v>
+        <v>2.057825026222361</v>
       </c>
       <c r="C2">
-        <v>0.7244485385296286</v>
+        <v>0.4367222648045583</v>
       </c>
       <c r="D2">
-        <v>0.02214920328616188</v>
+        <v>0.1081131216497724</v>
       </c>
       <c r="E2">
-        <v>0.04415086606235086</v>
+        <v>0.07764740748272914</v>
       </c>
       <c r="F2">
-        <v>1.861431764481537</v>
+        <v>0.8152553025554852</v>
       </c>
       <c r="G2">
-        <v>0.0008037015539703662</v>
+        <v>0.0007958123795372791</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07566337629083364</v>
+        <v>0.07670587137606688</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7421661962849697</v>
+        <v>0.5854587565949885</v>
       </c>
       <c r="N2">
-        <v>0.8823912641842213</v>
+        <v>0.7149124887343348</v>
       </c>
       <c r="O2">
-        <v>1.278949049607391</v>
+        <v>1.94620713053223</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.574500908457594</v>
+        <v>1.78752232545628</v>
       </c>
       <c r="C3">
-        <v>0.6259650945270039</v>
+        <v>0.3816754886405818</v>
       </c>
       <c r="D3">
-        <v>0.02052410831999296</v>
+        <v>0.09908235693904999</v>
       </c>
       <c r="E3">
-        <v>0.04203033978233606</v>
+        <v>0.07316173573106255</v>
       </c>
       <c r="F3">
-        <v>1.721733397261374</v>
+        <v>0.7671189141242252</v>
       </c>
       <c r="G3">
-        <v>0.0008113361884745182</v>
+        <v>0.0008001925020533591</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07270750539529658</v>
+        <v>0.0740800156101642</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6478791967585309</v>
+        <v>0.5104961384000717</v>
       </c>
       <c r="N3">
-        <v>0.9368684397665596</v>
+        <v>0.744359153997376</v>
       </c>
       <c r="O3">
-        <v>1.182030559821385</v>
+        <v>1.839561989716429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.336053314748824</v>
+        <v>1.622036118845102</v>
       </c>
       <c r="C4">
-        <v>0.566238690726891</v>
+        <v>0.347882079314985</v>
       </c>
       <c r="D4">
-        <v>0.01953755045187577</v>
+        <v>0.09361748149295579</v>
       </c>
       <c r="E4">
-        <v>0.04078257479817005</v>
+        <v>0.07050657176600339</v>
       </c>
       <c r="F4">
-        <v>1.639985214304986</v>
+        <v>0.739155790944011</v>
       </c>
       <c r="G4">
-        <v>0.0008161563004476692</v>
+        <v>0.0008029721290470726</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07102773934182949</v>
+        <v>0.07260564360951349</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.590867943465696</v>
+        <v>0.4647158344274374</v>
       </c>
       <c r="N4">
-        <v>0.9719279257110145</v>
+        <v>0.7635117000091256</v>
       </c>
       <c r="O4">
-        <v>1.125457151142072</v>
+        <v>1.778388960099221</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.239599474619297</v>
+        <v>1.554693002276622</v>
       </c>
       <c r="C5">
-        <v>0.5420588791089358</v>
+        <v>0.3341079951624977</v>
       </c>
       <c r="D5">
-        <v>0.01913805407436797</v>
+        <v>0.09140946687799811</v>
       </c>
       <c r="E5">
-        <v>0.04028693919181769</v>
+        <v>0.06944822426610386</v>
       </c>
       <c r="F5">
-        <v>1.607600756680171</v>
+        <v>0.7281379426088108</v>
       </c>
       <c r="G5">
-        <v>0.0008181551188238627</v>
+        <v>0.0008041279604273075</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07037500347445302</v>
+        <v>0.07203781011660126</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5678303638787199</v>
+        <v>0.4461134894503758</v>
       </c>
       <c r="N5">
-        <v>0.986603686727868</v>
+        <v>0.7715783126539648</v>
       </c>
       <c r="O5">
-        <v>1.103078682463462</v>
+        <v>1.754479979637807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.223623578942409</v>
+        <v>1.543515638298572</v>
       </c>
       <c r="C6">
-        <v>0.5380526885583379</v>
+        <v>0.3318205153781548</v>
       </c>
       <c r="D6">
-        <v>0.01907186298824115</v>
+        <v>0.09104394046509867</v>
       </c>
       <c r="E6">
-        <v>0.0402053923856176</v>
+        <v>0.06927387958970499</v>
       </c>
       <c r="F6">
-        <v>1.602277089564424</v>
+        <v>0.7263305734374086</v>
       </c>
       <c r="G6">
-        <v>0.0008184891457413816</v>
+        <v>0.0008043212931934816</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07026847548909032</v>
+        <v>0.07194546610542929</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5640160266441967</v>
+        <v>0.4430275730400908</v>
       </c>
       <c r="N6">
-        <v>0.9890636152143308</v>
+        <v>0.7729333587831348</v>
       </c>
       <c r="O6">
-        <v>1.099401829646567</v>
+        <v>1.750569690418843</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.334749745286445</v>
+        <v>1.621127560567601</v>
       </c>
       <c r="C7">
-        <v>0.5659119836992943</v>
+        <v>0.3476963349169466</v>
       </c>
       <c r="D7">
-        <v>0.01953215281269749</v>
+        <v>0.09358762813227628</v>
       </c>
       <c r="E7">
-        <v>0.04077583951599095</v>
+        <v>0.07049220436213943</v>
       </c>
       <c r="F7">
-        <v>1.63954481282326</v>
+        <v>0.7390057022637748</v>
       </c>
       <c r="G7">
-        <v>0.000816183115590721</v>
+        <v>0.0008029876228603925</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07101881042242297</v>
+        <v>0.07259785422967369</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5905564949247832</v>
+        <v>0.4644647511086362</v>
       </c>
       <c r="N7">
-        <v>0.9721242946329909</v>
+        <v>0.7636194391857281</v>
       </c>
       <c r="O7">
-        <v>1.125152690535685</v>
+        <v>1.778062468901538</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.831696309006816</v>
+        <v>1.964508025748984</v>
       </c>
       <c r="C8">
-        <v>0.6903199229065535</v>
+        <v>0.4177382405020182</v>
       </c>
       <c r="D8">
-        <v>0.02158634466049136</v>
+        <v>0.1049819771612235</v>
       </c>
       <c r="E8">
-        <v>0.04340794720196861</v>
+        <v>0.07607941170970989</v>
       </c>
       <c r="F8">
-        <v>1.812375226740826</v>
+        <v>0.7983129488430762</v>
       </c>
       <c r="G8">
-        <v>0.0008063072973738789</v>
+        <v>0.0007973041846713339</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07461476210959361</v>
+        <v>0.07577080429528138</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7094563891112102</v>
+        <v>0.5595550041143014</v>
       </c>
       <c r="N8">
-        <v>0.9008306441180913</v>
+        <v>0.7248383418904325</v>
       </c>
       <c r="O8">
-        <v>1.244883315141436</v>
+        <v>1.908502490326043</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.837641904261602</v>
+        <v>2.643024488019194</v>
       </c>
       <c r="C9">
-        <v>0.9415580542629129</v>
+        <v>0.5553536101886607</v>
       </c>
       <c r="D9">
-        <v>0.02571938655579231</v>
+        <v>0.1280182349642445</v>
       </c>
       <c r="E9">
-        <v>0.04903971691830833</v>
+        <v>0.0878823653270544</v>
       </c>
       <c r="F9">
-        <v>2.187418696645679</v>
+        <v>0.9283656254009003</v>
       </c>
       <c r="G9">
-        <v>0.0007879280327154348</v>
+        <v>0.0007868543974649196</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08284777860679782</v>
+        <v>0.08316850239043561</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9509400263693522</v>
+        <v>0.7484104133005616</v>
       </c>
       <c r="N9">
-        <v>0.7745978938905083</v>
+        <v>0.6576673779720608</v>
       </c>
       <c r="O9">
-        <v>1.506055540724958</v>
+        <v>2.201527600521757</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.604300640879558</v>
+        <v>3.146701498686639</v>
       </c>
       <c r="C10">
-        <v>1.132730809337602</v>
+        <v>0.6569590341173921</v>
       </c>
       <c r="D10">
-        <v>0.02884491049027105</v>
+        <v>0.1454505123793126</v>
       </c>
       <c r="E10">
-        <v>0.05352551819967033</v>
+        <v>0.09716018183389252</v>
       </c>
       <c r="F10">
-        <v>2.491438266088124</v>
+        <v>1.033953933612068</v>
       </c>
       <c r="G10">
-        <v>0.0007749289700915243</v>
+        <v>0.0007795706785572822</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08978506704255551</v>
+        <v>0.08944090944793004</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.135494091920748</v>
+        <v>0.8892583572139046</v>
       </c>
       <c r="N10">
-        <v>0.691357082436987</v>
+        <v>0.6142760174783675</v>
       </c>
       <c r="O10">
-        <v>1.718811004567016</v>
+        <v>2.444051930728364</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.961207133220512</v>
+        <v>3.377452081285753</v>
       </c>
       <c r="C11">
-        <v>1.221681486000193</v>
+        <v>0.7033733419786188</v>
       </c>
       <c r="D11">
-        <v>0.03029281425260777</v>
+        <v>0.153511663283993</v>
       </c>
       <c r="E11">
-        <v>0.05565734486219043</v>
+        <v>0.1015340821169453</v>
       </c>
       <c r="F11">
-        <v>2.637568881655511</v>
+        <v>1.084565326745164</v>
       </c>
       <c r="G11">
-        <v>0.000769100283778843</v>
+        <v>0.000776335478235224</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09317660648473947</v>
+        <v>0.09250508667678758</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.221526491931996</v>
+        <v>0.9539441533220909</v>
       </c>
       <c r="N11">
-        <v>0.6558657339062819</v>
+        <v>0.5959607926117485</v>
       </c>
       <c r="O11">
-        <v>1.821350540829386</v>
+        <v>2.561386351553153</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.097733027477034</v>
+        <v>3.465108638044512</v>
       </c>
       <c r="C12">
-        <v>1.255702675414739</v>
+        <v>0.7209844244309522</v>
       </c>
       <c r="D12">
-        <v>0.03084550525563401</v>
+        <v>0.1565848788246029</v>
       </c>
       <c r="E12">
-        <v>0.05647918973533805</v>
+        <v>0.1032143416799016</v>
       </c>
       <c r="F12">
-        <v>2.694186915730228</v>
+        <v>1.104137038484922</v>
       </c>
       <c r="G12">
-        <v>0.0007669029790943103</v>
+        <v>0.0007751210087148405</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09449883968348871</v>
+        <v>0.09369832389800337</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.254453145279541</v>
+        <v>0.9785409691293125</v>
       </c>
       <c r="N12">
-        <v>0.6427979563713393</v>
+        <v>0.5892419128001123</v>
       </c>
       <c r="O12">
-        <v>1.861123463813897</v>
+        <v>2.606923861050802</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.068265192475053</v>
+        <v>3.446217225302803</v>
       </c>
       <c r="C13">
-        <v>1.248359693862767</v>
+        <v>0.7171898855099812</v>
       </c>
       <c r="D13">
-        <v>0.03072626619340824</v>
+        <v>0.1559220594905781</v>
       </c>
       <c r="E13">
-        <v>0.05630151786226989</v>
+        <v>0.1028513703366585</v>
       </c>
       <c r="F13">
-        <v>2.681933530341922</v>
+        <v>1.09990325716474</v>
       </c>
       <c r="G13">
-        <v>0.0007673758073104558</v>
+        <v>0.0007753821039225483</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09421231669721664</v>
+        <v>0.09343983245687326</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.247345472542548</v>
+        <v>0.9732388544229806</v>
       </c>
       <c r="N13">
-        <v>0.6455952642443563</v>
+        <v>0.5906791061404775</v>
       </c>
       <c r="O13">
-        <v>1.852513697523634</v>
+        <v>2.59706573971863</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.972410440107183</v>
+        <v>3.384657844765059</v>
       </c>
       <c r="C14">
-        <v>1.224473344249418</v>
+        <v>0.704821471727513</v>
       </c>
       <c r="D14">
-        <v>0.03033819218909883</v>
+        <v>0.1537640744089543</v>
       </c>
       <c r="E14">
-        <v>0.05572465764154444</v>
+        <v>0.1016718265131615</v>
       </c>
       <c r="F14">
-        <v>2.642200238502056</v>
+        <v>1.086167148081728</v>
       </c>
       <c r="G14">
-        <v>0.0007689193260517147</v>
+        <v>0.0007762353537616415</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09328460238891267</v>
+        <v>0.09260258016750811</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.224228108437856</v>
+        <v>0.955965628502895</v>
       </c>
       <c r="N14">
-        <v>0.6547829960135871</v>
+        <v>0.5954036117040573</v>
       </c>
       <c r="O14">
-        <v>1.824603061626433</v>
+        <v>2.565110007508821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.913881852643158</v>
+        <v>3.346988254819905</v>
       </c>
       <c r="C15">
-        <v>1.209887873667128</v>
+        <v>0.6972502416143982</v>
       </c>
       <c r="D15">
-        <v>0.03010107980574972</v>
+        <v>0.1524449882453638</v>
       </c>
       <c r="E15">
-        <v>0.05537325730413656</v>
+        <v>0.100952500855005</v>
       </c>
       <c r="F15">
-        <v>2.618034284345583</v>
+        <v>1.077807392368172</v>
       </c>
       <c r="G15">
-        <v>0.0007698659918571327</v>
+        <v>0.000776759359319879</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09272141821467983</v>
+        <v>0.09209410348017144</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.210114946122957</v>
+        <v>0.945398943827108</v>
       </c>
       <c r="N15">
-        <v>0.6604601642771257</v>
+        <v>0.5983260983777754</v>
       </c>
       <c r="O15">
-        <v>1.807633530504319</v>
+        <v>2.545683195706147</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.581156610161713</v>
+        <v>3.131657675185068</v>
       </c>
       <c r="C16">
-        <v>1.126961922542591</v>
+        <v>0.653930241937843</v>
       </c>
       <c r="D16">
-        <v>0.02875086488236889</v>
+        <v>0.1449264846569065</v>
       </c>
       <c r="E16">
-        <v>0.05338815412304498</v>
+        <v>0.09687758299366678</v>
       </c>
       <c r="F16">
-        <v>2.482058728436172</v>
+        <v>1.030701220800637</v>
       </c>
       <c r="G16">
-        <v>0.0007753114029494452</v>
+        <v>0.0007797836286540876</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08956849949640855</v>
+        <v>0.08924511708045202</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.129917561050618</v>
+        <v>0.8850444609571113</v>
       </c>
       <c r="N16">
-        <v>0.6937268424061642</v>
+        <v>0.6155026130092764</v>
       </c>
       <c r="O16">
-        <v>1.712235205320042</v>
+        <v>2.436533064367836</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.379263512931175</v>
+        <v>3.000004874708566</v>
       </c>
       <c r="C17">
-        <v>1.076633031661288</v>
+        <v>0.6274092875859481</v>
       </c>
       <c r="D17">
-        <v>0.02792966595797353</v>
+        <v>0.1403489331207624</v>
       </c>
       <c r="E17">
-        <v>0.05219470144745664</v>
+        <v>0.0944183466943187</v>
       </c>
       <c r="F17">
-        <v>2.400752616967765</v>
+        <v>1.002487979831656</v>
       </c>
       <c r="G17">
-        <v>0.0007786721262241563</v>
+        <v>0.0007816585248541642</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08769738582461883</v>
+        <v>0.08755313212574833</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.081284478091007</v>
+        <v>0.848185312965029</v>
       </c>
       <c r="N17">
-        <v>0.7147637723432112</v>
+        <v>0.6264127455952888</v>
       </c>
       <c r="O17">
-        <v>1.655263695574675</v>
+        <v>2.371435290828202</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.263893634540636</v>
+        <v>2.924431907544999</v>
       </c>
       <c r="C18">
-        <v>1.047868572466371</v>
+        <v>0.6121728832015094</v>
       </c>
       <c r="D18">
-        <v>0.02745974526095196</v>
+        <v>0.1377282742106729</v>
       </c>
       <c r="E18">
-        <v>0.05151674827843067</v>
+        <v>0.09301817344828933</v>
       </c>
       <c r="F18">
-        <v>2.354714198127496</v>
+        <v>0.986500916937942</v>
       </c>
       <c r="G18">
-        <v>0.0007806132443450677</v>
+        <v>0.0007827443154045368</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08664309119554048</v>
+        <v>0.08659962555910994</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.053504314072164</v>
+        <v>0.8270417676675663</v>
       </c>
       <c r="N18">
-        <v>0.7270852043400353</v>
+        <v>0.6328212066425678</v>
       </c>
       <c r="O18">
-        <v>1.623029269666091</v>
+        <v>2.334646210552563</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.224955077496759</v>
+        <v>2.898868761183508</v>
       </c>
       <c r="C19">
-        <v>1.038159435927923</v>
+        <v>0.6070169382844881</v>
       </c>
       <c r="D19">
-        <v>0.02730103406003437</v>
+        <v>0.1368430122079189</v>
       </c>
       <c r="E19">
-        <v>0.05128862143567936</v>
+        <v>0.09254650162052158</v>
       </c>
       <c r="F19">
-        <v>2.339246754036466</v>
+        <v>0.981128232154262</v>
       </c>
       <c r="G19">
-        <v>0.0007812719332818416</v>
+        <v>0.0007831132342992995</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08628977472784527</v>
+        <v>0.08628008881438376</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.044130048821494</v>
+        <v>0.8198922983696093</v>
       </c>
       <c r="N19">
-        <v>0.7312942117974828</v>
+        <v>0.6350135349869461</v>
       </c>
       <c r="O19">
-        <v>1.612203673887052</v>
+        <v>2.322299433812645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.400675992220272</v>
+        <v>3.014003693008476</v>
       </c>
       <c r="C20">
-        <v>1.081971291668367</v>
+        <v>0.6302306017636283</v>
       </c>
       <c r="D20">
-        <v>0.02801683003368538</v>
+        <v>0.1408349433211953</v>
       </c>
       <c r="E20">
-        <v>0.05232085792529695</v>
+        <v>0.09467864176360052</v>
       </c>
       <c r="F20">
-        <v>2.409331512784078</v>
+        <v>1.005466193832518</v>
       </c>
       <c r="G20">
-        <v>0.0007783135468675262</v>
+        <v>0.0007814581774308116</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08789427267449668</v>
+        <v>0.08773119207175739</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.086441312416973</v>
+        <v>0.8521030527854592</v>
       </c>
       <c r="N20">
-        <v>0.7125012171917362</v>
+        <v>0.6252374694202345</v>
       </c>
       <c r="O20">
-        <v>1.661272340958632</v>
+        <v>2.378296748080572</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.000526311103386</v>
+        <v>3.402731471108552</v>
       </c>
       <c r="C21">
-        <v>1.23147973712878</v>
+        <v>0.7084533647277453</v>
       </c>
       <c r="D21">
-        <v>0.03045205380843896</v>
+        <v>0.1543973521428796</v>
       </c>
       <c r="E21">
-        <v>0.05589368767592973</v>
+        <v>0.102017621029578</v>
       </c>
       <c r="F21">
-        <v>2.653834754425048</v>
+        <v>1.090190453975723</v>
       </c>
       <c r="G21">
-        <v>0.0007684657081903238</v>
+        <v>0.0007759844501762447</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09355603058978801</v>
+        <v>0.09284758701116402</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.231008370132002</v>
+        <v>0.9610363202385983</v>
       </c>
       <c r="N21">
-        <v>0.6520739781625622</v>
+        <v>0.5940099290462015</v>
       </c>
       <c r="O21">
-        <v>1.832774494262026</v>
+        <v>2.574465361634395</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.400678814618061</v>
+        <v>3.65842046613767</v>
       </c>
       <c r="C22">
-        <v>1.331188441887548</v>
+        <v>0.7597842133572783</v>
       </c>
       <c r="D22">
-        <v>0.03206964369949716</v>
+        <v>0.1633823560792393</v>
       </c>
       <c r="E22">
-        <v>0.0583144546588592</v>
+        <v>0.1069547036514464</v>
       </c>
       <c r="F22">
-        <v>2.821188063761355</v>
+        <v>1.147949200474088</v>
       </c>
       <c r="G22">
-        <v>0.0007620859759361887</v>
+        <v>0.0007724686997012183</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09747964099385342</v>
+        <v>0.09638455472549623</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.327547378078947</v>
+        <v>1.032830415122234</v>
       </c>
       <c r="N22">
-        <v>0.6147667222585511</v>
+        <v>0.5748702036708693</v>
       </c>
       <c r="O22">
-        <v>1.950424513448979</v>
+        <v>2.70916754242424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.186294196328163</v>
+        <v>3.521790030237696</v>
       </c>
       <c r="C23">
-        <v>1.277770406449406</v>
+        <v>0.7323664270095378</v>
       </c>
       <c r="D23">
-        <v>0.03120368224870518</v>
+        <v>0.1585751791469221</v>
       </c>
       <c r="E23">
-        <v>0.05701407752951937</v>
+        <v>0.1043061552053182</v>
       </c>
       <c r="F23">
-        <v>2.731120532350673</v>
+        <v>1.1168914631955</v>
       </c>
       <c r="G23">
-        <v>0.0007654866243424059</v>
+        <v>0.0007743396956990132</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09536363952135218</v>
+        <v>0.09447823374789266</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.27581666784863</v>
+        <v>0.9944529111292226</v>
       </c>
       <c r="N23">
-        <v>0.6344672537708362</v>
+        <v>0.5849651108595495</v>
       </c>
       <c r="O23">
-        <v>1.887081347110325</v>
+        <v>2.636645920081321</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.390993241296314</v>
+        <v>3.007674469176038</v>
       </c>
       <c r="C24">
-        <v>1.079557337748668</v>
+        <v>0.6289550523767957</v>
       </c>
       <c r="D24">
-        <v>0.02797741635824025</v>
+        <v>0.1406151838663874</v>
       </c>
       <c r="E24">
-        <v>0.05226379721450591</v>
+        <v>0.09456091991210513</v>
       </c>
       <c r="F24">
-        <v>2.405450807874587</v>
+        <v>1.004119019860553</v>
       </c>
       <c r="G24">
-        <v>0.0007784756323832208</v>
+        <v>0.0007815487298845382</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08780519366764139</v>
+        <v>0.08765063144071661</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.084109351716016</v>
+        <v>0.8503316963856022</v>
       </c>
       <c r="N24">
-        <v>0.7135234135129025</v>
+        <v>0.6257683888136043</v>
       </c>
       <c r="O24">
-        <v>1.658554223585881</v>
+        <v>2.375192708003539</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.56132483177015</v>
+        <v>2.458715738091939</v>
       </c>
       <c r="C25">
-        <v>0.8726044544471279</v>
+        <v>0.5180634434922524</v>
       </c>
       <c r="D25">
-        <v>0.02458768737352557</v>
+        <v>0.1217037355232691</v>
       </c>
       <c r="E25">
-        <v>0.04745985900555816</v>
+        <v>0.08458978617406387</v>
       </c>
       <c r="F25">
-        <v>2.081466930762616</v>
+        <v>0.8915466773655254</v>
       </c>
       <c r="G25">
-        <v>0.0007928039320550056</v>
+        <v>0.0007896099034454485</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08047772837933564</v>
+        <v>0.0810294124981894</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8845214596714257</v>
+        <v>0.697001263991929</v>
       </c>
       <c r="N25">
-        <v>0.8071754488625018</v>
+        <v>0.6748342506780673</v>
       </c>
       <c r="O25">
-        <v>1.432113372358899</v>
+        <v>2.117820660686903</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.057825026222361</v>
+        <v>1.768368407933934</v>
       </c>
       <c r="C2">
-        <v>0.4367222648045583</v>
+        <v>0.419333692809829</v>
       </c>
       <c r="D2">
-        <v>0.1081131216497724</v>
+        <v>0.1789432276372764</v>
       </c>
       <c r="E2">
-        <v>0.07764740748272914</v>
+        <v>0.126606520367023</v>
       </c>
       <c r="F2">
-        <v>0.8152553025554852</v>
+        <v>0.5874122349524313</v>
       </c>
       <c r="G2">
-        <v>0.0007958123795372791</v>
+        <v>0.3195214591732665</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0004429107405248267</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07670587137606688</v>
+        <v>0.2630804830413709</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1768780069850777</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1274015805318456</v>
       </c>
       <c r="M2">
-        <v>0.5854587565949885</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7149124887343348</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.94620713053223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5559711289489542</v>
+      </c>
+      <c r="P2">
+        <v>0.7821244720584914</v>
+      </c>
+      <c r="Q2">
+        <v>1.177745001126922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.78752232545628</v>
+        <v>1.542299589871192</v>
       </c>
       <c r="C3">
-        <v>0.3816754886405818</v>
+        <v>0.3681706326252367</v>
       </c>
       <c r="D3">
-        <v>0.09908235693904999</v>
+        <v>0.1643556169009486</v>
       </c>
       <c r="E3">
-        <v>0.07316173573106255</v>
+        <v>0.1180552623819402</v>
       </c>
       <c r="F3">
-        <v>0.7671189141242252</v>
+        <v>0.5541088422386551</v>
       </c>
       <c r="G3">
-        <v>0.0008001925020533591</v>
+        <v>0.2978384691536107</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6.25035701593557E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0740800156101642</v>
+        <v>0.2571595351018985</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1790845646459864</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1199568376900082</v>
       </c>
       <c r="M3">
-        <v>0.5104961384000717</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.744359153997376</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.839561989716429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.4856543629368488</v>
+      </c>
+      <c r="P3">
+        <v>0.7827506298023437</v>
+      </c>
+      <c r="Q3">
+        <v>1.119091239051073</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.622036118845102</v>
+        <v>1.403236204916539</v>
       </c>
       <c r="C4">
-        <v>0.347882079314985</v>
+        <v>0.336677548079507</v>
       </c>
       <c r="D4">
-        <v>0.09361748149295579</v>
+        <v>0.1554187076241504</v>
       </c>
       <c r="E4">
-        <v>0.07050657176600339</v>
+        <v>0.1127921912255516</v>
       </c>
       <c r="F4">
-        <v>0.739155790944011</v>
+        <v>0.5343025976892193</v>
       </c>
       <c r="G4">
-        <v>0.0008029721290470726</v>
+        <v>0.2850293536373485</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.111738250931694E-07</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07260564360951349</v>
+        <v>0.2538588723444306</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1808208004691956</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1153494520208547</v>
       </c>
       <c r="M4">
-        <v>0.4647158344274374</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7635117000091256</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.778388960099221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4424450478058404</v>
+      </c>
+      <c r="P4">
+        <v>0.783768721788725</v>
+      </c>
+      <c r="Q4">
+        <v>1.084839615654786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.554693002276622</v>
+        <v>1.346495629708528</v>
       </c>
       <c r="C5">
-        <v>0.3341079951624977</v>
+        <v>0.3238228826595844</v>
       </c>
       <c r="D5">
-        <v>0.09140946687799811</v>
+        <v>0.1517810755191746</v>
       </c>
       <c r="E5">
-        <v>0.06944822426610386</v>
+        <v>0.1106435992960186</v>
       </c>
       <c r="F5">
-        <v>0.7281379426088108</v>
+        <v>0.5263850342102927</v>
       </c>
       <c r="G5">
-        <v>0.0008041279604273075</v>
+        <v>0.2799292845696328</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.555797539598558E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07203781011660126</v>
+        <v>0.2525948761975485</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1816205813725702</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1134619693471031</v>
       </c>
       <c r="M5">
-        <v>0.4461134894503758</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7715783126539648</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.754479979637807</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4248256967169866</v>
+      </c>
+      <c r="P5">
+        <v>0.78433861563704</v>
+      </c>
+      <c r="Q5">
+        <v>1.0713033010245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.543515638298572</v>
+        <v>1.337069419252515</v>
       </c>
       <c r="C6">
-        <v>0.3318205153781548</v>
+        <v>0.3216870759746939</v>
       </c>
       <c r="D6">
-        <v>0.09104394046509867</v>
+        <v>0.1511772828123767</v>
       </c>
       <c r="E6">
-        <v>0.06927387958970499</v>
+        <v>0.1102865752429487</v>
       </c>
       <c r="F6">
-        <v>0.7263305734374086</v>
+        <v>0.5250793850187705</v>
       </c>
       <c r="G6">
-        <v>0.0008043212931934816</v>
+        <v>0.2790894530885453</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.049934285497379E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07194546610542929</v>
+        <v>0.25238979628854</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1817588516395414</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1131479310082923</v>
       </c>
       <c r="M6">
-        <v>0.4430275730400908</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7729333587831348</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.750569690418843</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4218992694577111</v>
+      </c>
+      <c r="P6">
+        <v>0.7844424862923205</v>
+      </c>
+      <c r="Q6">
+        <v>1.069080448893246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.621127560567601</v>
+        <v>1.402471278115058</v>
       </c>
       <c r="C7">
-        <v>0.3476963349169466</v>
+        <v>0.3365042719821076</v>
       </c>
       <c r="D7">
-        <v>0.09358762813227628</v>
+        <v>0.1553696331243088</v>
       </c>
       <c r="E7">
-        <v>0.07049220436213943</v>
+        <v>0.1127632310333553</v>
       </c>
       <c r="F7">
-        <v>0.7390057022637748</v>
+        <v>0.5341952067060447</v>
       </c>
       <c r="G7">
-        <v>0.0008029876228603925</v>
+        <v>0.284960096603136</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.562647118953265E-07</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07259785422967369</v>
+        <v>0.2538415015428157</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1808312178108018</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1153240380512699</v>
       </c>
       <c r="M7">
-        <v>0.4644647511086362</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7636194391857281</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.778062468901538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4422074756643113</v>
+      </c>
+      <c r="P7">
+        <v>0.7837757854825043</v>
+      </c>
+      <c r="Q7">
+        <v>1.084655381446893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.964508025748984</v>
+        <v>1.690468813295837</v>
       </c>
       <c r="C8">
-        <v>0.4177382405020182</v>
+        <v>0.4017082631360154</v>
       </c>
       <c r="D8">
-        <v>0.1049819771612235</v>
+        <v>0.1739087932126751</v>
       </c>
       <c r="E8">
-        <v>0.07607941170970989</v>
+        <v>0.1236602294992473</v>
       </c>
       <c r="F8">
-        <v>0.7983129488430762</v>
+        <v>0.575791121256394</v>
       </c>
       <c r="G8">
-        <v>0.0007973041846713339</v>
+        <v>0.3119361462730694</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002747684548551899</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07577080429528138</v>
+        <v>0.2609675155458646</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1775574287786199</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1248416647128145</v>
       </c>
       <c r="M8">
-        <v>0.5595550041143014</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7248383418904325</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.908502490326043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5317314926403256</v>
+      </c>
+      <c r="P8">
+        <v>0.7822061956629653</v>
+      </c>
+      <c r="Q8">
+        <v>1.157142213845674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.643024488019194</v>
+        <v>2.253551750003055</v>
       </c>
       <c r="C9">
-        <v>0.5553536101886607</v>
+        <v>0.5290125149304572</v>
       </c>
       <c r="D9">
-        <v>0.1280182349642445</v>
+        <v>0.2104611139288721</v>
       </c>
       <c r="E9">
-        <v>0.0878823653270544</v>
+        <v>0.1449627528585253</v>
       </c>
       <c r="F9">
-        <v>0.9283656254009003</v>
+        <v>0.6628281261806066</v>
       </c>
       <c r="G9">
-        <v>0.0007868543974649196</v>
+        <v>0.3691721887932147</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.002280785872714519</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08316850239043561</v>
+        <v>0.2777469167451869</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1743346454685195</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1432564462125825</v>
       </c>
       <c r="M9">
-        <v>0.7484104133005616</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6576673779720608</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.201527600521757</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7071432741143013</v>
+      </c>
+      <c r="P9">
+        <v>0.784361548395978</v>
+      </c>
+      <c r="Q9">
+        <v>1.314290306951676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.146701498686639</v>
+        <v>2.663214990790266</v>
       </c>
       <c r="C10">
-        <v>0.6569590341173921</v>
+        <v>0.6197711498561773</v>
       </c>
       <c r="D10">
-        <v>0.1454505123793126</v>
+        <v>0.2324366521022228</v>
       </c>
       <c r="E10">
-        <v>0.09716018183389252</v>
+        <v>0.1549886166681809</v>
       </c>
       <c r="F10">
-        <v>1.033953933612068</v>
+        <v>0.7206310743118323</v>
       </c>
       <c r="G10">
-        <v>0.0007795706785572822</v>
+        <v>0.4091049328965113</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004811621840591584</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08944090944793004</v>
+        <v>0.2894048772784856</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.172233208552516</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1502745604944025</v>
       </c>
       <c r="M10">
-        <v>0.8892583572139046</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6142760174783675</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.444051930728364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8230598280034158</v>
+      </c>
+      <c r="P10">
+        <v>0.7945095972443994</v>
+      </c>
+      <c r="Q10">
+        <v>1.423810411272797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.377452081285753</v>
+        <v>2.818080888144323</v>
       </c>
       <c r="C11">
-        <v>0.7033733419786188</v>
+        <v>0.6388302382760571</v>
       </c>
       <c r="D11">
-        <v>0.153511663283993</v>
+        <v>0.2004640580998824</v>
       </c>
       <c r="E11">
-        <v>0.1015340821169453</v>
+        <v>0.1165984021586475</v>
       </c>
       <c r="F11">
-        <v>1.084565326745164</v>
+        <v>0.6622713502439908</v>
       </c>
       <c r="G11">
-        <v>0.000776335478235224</v>
+        <v>0.3829388111465022</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02328524945394861</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09250508667678758</v>
+        <v>0.2727711054568829</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.155459106501084</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.109458168707306</v>
       </c>
       <c r="M11">
-        <v>0.9539441533220909</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5959607926117485</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.561386351553153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.7641855543374021</v>
+      </c>
+      <c r="P11">
+        <v>0.8471916447252426</v>
+      </c>
+      <c r="Q11">
+        <v>1.333679492314133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.465108638044512</v>
+        <v>2.861527758160321</v>
       </c>
       <c r="C12">
-        <v>0.7209844244309522</v>
+        <v>0.6354757805395934</v>
       </c>
       <c r="D12">
-        <v>0.1565848788246029</v>
+        <v>0.1713186978672923</v>
       </c>
       <c r="E12">
-        <v>0.1032143416799016</v>
+        <v>0.09007827008065306</v>
       </c>
       <c r="F12">
-        <v>1.104137038484922</v>
+        <v>0.6022344097354733</v>
       </c>
       <c r="G12">
-        <v>0.0007751210087148405</v>
+        <v>0.3527301342613782</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06161766811393932</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09369832389800337</v>
+        <v>0.2562580895477566</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1420626521396997</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.08934667701064569</v>
       </c>
       <c r="M12">
-        <v>0.9785409691293125</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5892419128001123</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.606923861050802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.6923625275845211</v>
+      </c>
+      <c r="P12">
+        <v>0.8933857357918384</v>
+      </c>
+      <c r="Q12">
+        <v>1.235116614093243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.446217225302803</v>
+        <v>2.821351914029719</v>
       </c>
       <c r="C13">
-        <v>0.7171898855099812</v>
+        <v>0.6147181522834444</v>
       </c>
       <c r="D13">
-        <v>0.1559220594905781</v>
+        <v>0.1427879829188043</v>
       </c>
       <c r="E13">
-        <v>0.1028513703366585</v>
+        <v>0.07114231922160386</v>
       </c>
       <c r="F13">
-        <v>1.09990325716474</v>
+        <v>0.5374884106678621</v>
       </c>
       <c r="G13">
-        <v>0.0007753821039225483</v>
+        <v>0.3176075298344188</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1167905360531591</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09343983245687326</v>
+        <v>0.2388202730805489</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1303630355899266</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.08375471025306336</v>
       </c>
       <c r="M13">
-        <v>0.9732388544229806</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5906791061404775</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.59706573971863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6069658927350474</v>
+      </c>
+      <c r="P13">
+        <v>0.9361706446811127</v>
+      </c>
+      <c r="Q13">
+        <v>1.124114167929207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.384657844765059</v>
+        <v>2.755449971045834</v>
       </c>
       <c r="C14">
-        <v>0.704821471727513</v>
+        <v>0.5924055154140433</v>
       </c>
       <c r="D14">
-        <v>0.1537640744089543</v>
+        <v>0.123600122134107</v>
       </c>
       <c r="E14">
-        <v>0.1016718265131615</v>
+        <v>0.06243999952364154</v>
       </c>
       <c r="F14">
-        <v>1.086167148081728</v>
+        <v>0.4906784026321702</v>
       </c>
       <c r="G14">
-        <v>0.0007762353537616415</v>
+        <v>0.2911037848251681</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1656610313104778</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09260258016750811</v>
+        <v>0.2263196070877456</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1230646992758153</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08840162977326749</v>
       </c>
       <c r="M14">
-        <v>0.955965628502895</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5954036117040573</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.565110007508821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5419787075968401</v>
+      </c>
+      <c r="P14">
+        <v>0.96459067919821</v>
+      </c>
+      <c r="Q14">
+        <v>1.041691159988119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.346988254819905</v>
+        <v>2.721703936037386</v>
       </c>
       <c r="C15">
-        <v>0.6972502416143982</v>
+        <v>0.5833314263285843</v>
       </c>
       <c r="D15">
-        <v>0.1524449882453638</v>
+        <v>0.1187798067892771</v>
       </c>
       <c r="E15">
-        <v>0.100952500855005</v>
+        <v>0.06090619002465836</v>
       </c>
       <c r="F15">
-        <v>1.077807392368172</v>
+        <v>0.4781720540887022</v>
       </c>
       <c r="G15">
-        <v>0.000776759359319879</v>
+        <v>0.2836027797701632</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1779664142079298</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09209410348017144</v>
+        <v>0.2230960475309516</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1216098658709281</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09052797413707836</v>
       </c>
       <c r="M15">
-        <v>0.945398943827108</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5983260983777754</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.545683195706147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5231157670367352</v>
+      </c>
+      <c r="P15">
+        <v>0.9701086026735624</v>
+      </c>
+      <c r="Q15">
+        <v>1.019005236825819</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.131657675185068</v>
+        <v>2.553882623407276</v>
       </c>
       <c r="C16">
-        <v>0.653930241937843</v>
+        <v>0.5489927806210915</v>
       </c>
       <c r="D16">
-        <v>0.1449264846569065</v>
+        <v>0.1158394228956183</v>
       </c>
       <c r="E16">
-        <v>0.09687758299366678</v>
+        <v>0.06087894824420648</v>
       </c>
       <c r="F16">
-        <v>1.030701220800637</v>
+        <v>0.4672094004809253</v>
       </c>
       <c r="G16">
-        <v>0.0007797836286540876</v>
+        <v>0.2737319018061228</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1642318619755088</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.08924511708045202</v>
+        <v>0.2215817775552296</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1246054324212764</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.08863059136842821</v>
       </c>
       <c r="M16">
-        <v>0.8850444609571113</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6155026130092764</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.436533064367836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.493114227701156</v>
+      </c>
+      <c r="P16">
+        <v>0.9538983606965701</v>
+      </c>
+      <c r="Q16">
+        <v>0.9947203893727448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.000004874708566</v>
+        <v>2.460388933687454</v>
       </c>
       <c r="C17">
-        <v>0.6274092875859481</v>
+        <v>0.5344788018563804</v>
       </c>
       <c r="D17">
-        <v>0.1403489331207624</v>
+        <v>0.1234334532569505</v>
       </c>
       <c r="E17">
-        <v>0.0944183466943187</v>
+        <v>0.06470604835936822</v>
       </c>
       <c r="F17">
-        <v>1.002487979831656</v>
+        <v>0.483451543399255</v>
       </c>
       <c r="G17">
-        <v>0.0007816585248541642</v>
+        <v>0.280213468328796</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1259484956275116</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08755313212574833</v>
+        <v>0.2270864746790053</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1308206753983434</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.08333995678133732</v>
       </c>
       <c r="M17">
-        <v>0.848185312965029</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6264127455952888</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.371435290828202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5039686594554809</v>
+      </c>
+      <c r="P17">
+        <v>0.926720846088287</v>
+      </c>
+      <c r="Q17">
+        <v>1.019875164302618</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.924431907544999</v>
+        <v>2.419730553257807</v>
       </c>
       <c r="C18">
-        <v>0.6121728832015094</v>
+        <v>0.535292130986079</v>
       </c>
       <c r="D18">
-        <v>0.1377282742106729</v>
+        <v>0.1423038857037255</v>
       </c>
       <c r="E18">
-        <v>0.09301817344828933</v>
+        <v>0.07624804518085959</v>
       </c>
       <c r="F18">
-        <v>0.986500916937942</v>
+        <v>0.5258815653996365</v>
       </c>
       <c r="G18">
-        <v>0.0007827443154045368</v>
+        <v>0.3017429569588899</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07306632419657433</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08659962555910994</v>
+        <v>0.2392949069330399</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1406767800806286</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0821813145070999</v>
       </c>
       <c r="M18">
-        <v>0.8270417676675663</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6328212066425678</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.334646210552563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.552780905915462</v>
+      </c>
+      <c r="P18">
+        <v>0.888477974936535</v>
+      </c>
+      <c r="Q18">
+        <v>1.091024833018309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.898868761183508</v>
+        <v>2.424223402875953</v>
       </c>
       <c r="C19">
-        <v>0.6070169382844881</v>
+        <v>0.5484100200627893</v>
       </c>
       <c r="D19">
-        <v>0.1368430122079189</v>
+        <v>0.1710446802762249</v>
       </c>
       <c r="E19">
-        <v>0.09254650162052158</v>
+        <v>0.09913353499629629</v>
       </c>
       <c r="F19">
-        <v>0.981128232154262</v>
+        <v>0.5882624463209822</v>
       </c>
       <c r="G19">
-        <v>0.0007831132342992995</v>
+        <v>0.3345719501085256</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02827213000544759</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08628008881438376</v>
+        <v>0.2562689419905269</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1531665683955765</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.09579424259522185</v>
       </c>
       <c r="M19">
-        <v>0.8198922983696093</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6350135349869461</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.322299433812645</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.631475754683116</v>
+      </c>
+      <c r="P19">
+        <v>0.846110831303065</v>
+      </c>
+      <c r="Q19">
+        <v>1.196160817146307</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.014003693008476</v>
+        <v>2.555524694803012</v>
       </c>
       <c r="C20">
-        <v>0.6302306017636283</v>
+        <v>0.5958538000966485</v>
       </c>
       <c r="D20">
-        <v>0.1408349433211953</v>
+        <v>0.2264452284058649</v>
       </c>
       <c r="E20">
-        <v>0.09467864176360052</v>
+        <v>0.15211585969179</v>
       </c>
       <c r="F20">
-        <v>1.005466193832518</v>
+        <v>0.7047599617385671</v>
       </c>
       <c r="G20">
-        <v>0.0007814581774308116</v>
+        <v>0.3981728652365746</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004049617540268446</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08773119207175739</v>
+        <v>0.2860971508827674</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1725438473459526</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1481562839451342</v>
       </c>
       <c r="M20">
-        <v>0.8521030527854592</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6252374694202345</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.378296748080572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.7920862836740596</v>
+      </c>
+      <c r="P20">
+        <v>0.7917759000677052</v>
+      </c>
+      <c r="Q20">
+        <v>1.393592002677025</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.402731471108552</v>
+        <v>2.87537776993122</v>
       </c>
       <c r="C21">
-        <v>0.7084533647277453</v>
+        <v>0.6693599599309152</v>
       </c>
       <c r="D21">
-        <v>0.1543973521428796</v>
+        <v>0.2511985375405175</v>
       </c>
       <c r="E21">
-        <v>0.102017621029578</v>
+        <v>0.1685407542138968</v>
       </c>
       <c r="F21">
-        <v>1.090190453975723</v>
+        <v>0.7659890359301897</v>
       </c>
       <c r="G21">
-        <v>0.0007759844501762447</v>
+        <v>0.4380657766675142</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00638147629592023</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09284758701116402</v>
+        <v>0.2997323741853535</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1746864677405533</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.163461483783351</v>
       </c>
       <c r="M21">
-        <v>0.9610363202385983</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5940099290462015</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.574465361634395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9013117372955293</v>
+      </c>
+      <c r="P21">
+        <v>0.7929478168092601</v>
+      </c>
+      <c r="Q21">
+        <v>1.507056312174086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.65842046613767</v>
+        <v>3.082715640215042</v>
       </c>
       <c r="C22">
-        <v>0.7597842133572783</v>
+        <v>0.7161067916460695</v>
       </c>
       <c r="D22">
-        <v>0.1633823560792393</v>
+        <v>0.2648548629161667</v>
       </c>
       <c r="E22">
-        <v>0.1069547036514464</v>
+        <v>0.1764224194969337</v>
       </c>
       <c r="F22">
-        <v>1.147949200474088</v>
+        <v>0.8017929508294372</v>
       </c>
       <c r="G22">
-        <v>0.0007724686997012183</v>
+        <v>0.4621978339123558</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.008137327493483781</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09638455472549623</v>
+        <v>0.3077440877912778</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1755834493387773</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1701904736934523</v>
       </c>
       <c r="M22">
-        <v>1.032830415122234</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5748702036708693</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.70916754242424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.9661429306382416</v>
+      </c>
+      <c r="P22">
+        <v>0.7970116306467503</v>
+      </c>
+      <c r="Q22">
+        <v>1.575205742550679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.521790030237696</v>
+        <v>2.972041873101375</v>
       </c>
       <c r="C23">
-        <v>0.7323664270095378</v>
+        <v>0.6911570105959584</v>
       </c>
       <c r="D23">
-        <v>0.1585751791469221</v>
+        <v>0.2575610997229063</v>
       </c>
       <c r="E23">
-        <v>0.1043061552053182</v>
+        <v>0.1722138956570518</v>
       </c>
       <c r="F23">
-        <v>1.1168914631955</v>
+        <v>0.7825992732978193</v>
       </c>
       <c r="G23">
-        <v>0.0007743396956990132</v>
+        <v>0.4492480765965325</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.007177083719296318</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09447823374789266</v>
+        <v>0.3034280404909993</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1750591743304142</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1665986299955051</v>
       </c>
       <c r="M23">
-        <v>0.9944529111292226</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5849651108595495</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.636645920081321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9315319369599351</v>
+      </c>
+      <c r="P23">
+        <v>0.7947733429658257</v>
+      </c>
+      <c r="Q23">
+        <v>1.538601433482597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.007674469176038</v>
+        <v>2.553116775462172</v>
       </c>
       <c r="C24">
-        <v>0.6289550523767957</v>
+        <v>0.596653909004317</v>
       </c>
       <c r="D24">
-        <v>0.1406151838663874</v>
+        <v>0.2300430132386282</v>
       </c>
       <c r="E24">
-        <v>0.09456091991210513</v>
+        <v>0.1563115082779412</v>
       </c>
       <c r="F24">
-        <v>1.004119019860553</v>
+        <v>0.7116963395527165</v>
       </c>
       <c r="G24">
-        <v>0.0007815487298845382</v>
+        <v>0.4016822033012062</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004029469336703451</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08765063144071661</v>
+        <v>0.2879350361838107</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1740440615100667</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1529985144181794</v>
       </c>
       <c r="M24">
-        <v>0.8503316963856022</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6257683888136043</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.375192708003539</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8006310527122551</v>
+      </c>
+      <c r="P24">
+        <v>0.7877823212018455</v>
+      </c>
+      <c r="Q24">
+        <v>1.404877482137465</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.458715738091939</v>
+        <v>2.101346476481979</v>
       </c>
       <c r="C25">
-        <v>0.5180634434922524</v>
+        <v>0.4946228864540387</v>
       </c>
       <c r="D25">
-        <v>0.1217037355232691</v>
+        <v>0.20054572548203</v>
       </c>
       <c r="E25">
-        <v>0.08458978617406387</v>
+        <v>0.1392020111379679</v>
       </c>
       <c r="F25">
-        <v>0.8915466773655254</v>
+        <v>0.638642306781783</v>
       </c>
       <c r="G25">
-        <v>0.0007896099034454485</v>
+        <v>0.3531751579866409</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.001565276917320446</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0810294124981894</v>
+        <v>0.2728855826942436</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1748394709956465</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1382957454336449</v>
       </c>
       <c r="M25">
-        <v>0.697001263991929</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6748342506780673</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.117820660686903</v>
+        <v>0.659684984644592</v>
+      </c>
+      <c r="P25">
+        <v>0.7831880739231423</v>
+      </c>
+      <c r="Q25">
+        <v>1.270022193323939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.768368407933934</v>
+        <v>1.728944452769241</v>
       </c>
       <c r="C2">
-        <v>0.419333692809829</v>
+        <v>0.4452638499437569</v>
       </c>
       <c r="D2">
-        <v>0.1789432276372764</v>
+        <v>0.1804920487710149</v>
       </c>
       <c r="E2">
-        <v>0.126606520367023</v>
+        <v>0.1260212046432763</v>
       </c>
       <c r="F2">
-        <v>0.5874122349524313</v>
+        <v>0.575045576049817</v>
       </c>
       <c r="G2">
-        <v>0.3195214591732665</v>
+        <v>0.29023273921905</v>
       </c>
       <c r="H2">
-        <v>0.0004429107405248267</v>
+        <v>0.000368426642368469</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2630804830413709</v>
+        <v>0.3000702531289576</v>
       </c>
       <c r="K2">
-        <v>0.1768780069850777</v>
+        <v>0.168548299611615</v>
       </c>
       <c r="L2">
-        <v>0.1274015805318456</v>
+        <v>0.1154357733591276</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02890233772944661</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1257753120841372</v>
       </c>
       <c r="O2">
-        <v>0.5559711289489542</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7821244720584914</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.177745001126922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5577651901263465</v>
+      </c>
+      <c r="R2">
+        <v>0.7994772460641641</v>
+      </c>
+      <c r="S2">
+        <v>1.144015451440666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.542299589871192</v>
+        <v>1.513677152027554</v>
       </c>
       <c r="C3">
-        <v>0.3681706326252367</v>
+        <v>0.3864865624453842</v>
       </c>
       <c r="D3">
-        <v>0.1643556169009486</v>
+        <v>0.16561632347846</v>
       </c>
       <c r="E3">
-        <v>0.1180552623819402</v>
+        <v>0.117669565578101</v>
       </c>
       <c r="F3">
-        <v>0.5541088422386551</v>
+        <v>0.5444825671227704</v>
       </c>
       <c r="G3">
-        <v>0.2978384691536107</v>
+        <v>0.2710533080479465</v>
       </c>
       <c r="H3">
-        <v>6.25035701593557E-05</v>
+        <v>4.451983144182492E-05</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2571595351018985</v>
+        <v>0.2934943063152531</v>
       </c>
       <c r="K3">
-        <v>0.1790845646459864</v>
+        <v>0.1716843390258784</v>
       </c>
       <c r="L3">
-        <v>0.1199568376900082</v>
+        <v>0.1204500305317779</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02718849478240504</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1187684779224192</v>
       </c>
       <c r="O3">
-        <v>0.4856543629368488</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7827506298023437</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.119091239051073</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.4871438175534379</v>
+      </c>
+      <c r="R3">
+        <v>0.7939617126541592</v>
+      </c>
+      <c r="S3">
+        <v>1.092771572808473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.403236204916539</v>
+        <v>1.381004688435979</v>
       </c>
       <c r="C4">
-        <v>0.336677548079507</v>
+        <v>0.3504543146484878</v>
       </c>
       <c r="D4">
-        <v>0.1554187076241504</v>
+        <v>0.1565214205805177</v>
       </c>
       <c r="E4">
-        <v>0.1127921912255516</v>
+        <v>0.1125342657277955</v>
       </c>
       <c r="F4">
-        <v>0.5343025976892193</v>
+        <v>0.526240038908405</v>
       </c>
       <c r="G4">
-        <v>0.2850293536373485</v>
+        <v>0.259753803933954</v>
       </c>
       <c r="H4">
-        <v>2.111738250931694E-07</v>
+        <v>1.699361182216919E-06</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2538588723444306</v>
+        <v>0.2896186449278986</v>
       </c>
       <c r="K4">
-        <v>0.1808208004691956</v>
+        <v>0.1739027725829203</v>
       </c>
       <c r="L4">
-        <v>0.1153494520208547</v>
+        <v>0.123734411055711</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02665719063987559</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1144299474179995</v>
       </c>
       <c r="O4">
-        <v>0.4424450478058404</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.783768721788725</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.084839615654786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4437393635145241</v>
+      </c>
+      <c r="R4">
+        <v>0.7912549141388823</v>
+      </c>
+      <c r="S4">
+        <v>1.062696500976486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.346495629708528</v>
+        <v>1.326810170493843</v>
       </c>
       <c r="C5">
-        <v>0.3238228826595844</v>
+        <v>0.3357840694054062</v>
       </c>
       <c r="D5">
-        <v>0.1517810755191746</v>
+        <v>0.1528242051020641</v>
       </c>
       <c r="E5">
-        <v>0.1106435992960186</v>
+        <v>0.1104391273651117</v>
       </c>
       <c r="F5">
-        <v>0.5263850342102927</v>
+        <v>0.5189308630768892</v>
       </c>
       <c r="G5">
-        <v>0.2799292845696328</v>
+        <v>0.2552617351616888</v>
       </c>
       <c r="H5">
-        <v>1.555797539598558E-05</v>
+        <v>2.140866638522532E-05</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2525948761975485</v>
+        <v>0.2880784736828659</v>
       </c>
       <c r="K5">
-        <v>0.1816205813725702</v>
+        <v>0.174877610124085</v>
       </c>
       <c r="L5">
-        <v>0.1134619693471031</v>
+        <v>0.1251245105402141</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02656974585991723</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1126521314382423</v>
       </c>
       <c r="O5">
-        <v>0.4248256967169866</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.78433861563704</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.0713033010245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4260389134877158</v>
+      </c>
+      <c r="R5">
+        <v>0.790319153703102</v>
+      </c>
+      <c r="S5">
+        <v>1.050771796808959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.337069419252515</v>
+        <v>1.317803277195054</v>
       </c>
       <c r="C6">
-        <v>0.3216870759746939</v>
+        <v>0.3333488500234409</v>
       </c>
       <c r="D6">
-        <v>0.1511772828123767</v>
+        <v>0.1522108098320132</v>
       </c>
       <c r="E6">
-        <v>0.1102865752429487</v>
+        <v>0.1100910651139984</v>
       </c>
       <c r="F6">
-        <v>0.5250793850187705</v>
+        <v>0.5177245241938735</v>
       </c>
       <c r="G6">
-        <v>0.2790894530885453</v>
+        <v>0.2545224207909627</v>
       </c>
       <c r="H6">
-        <v>2.049934285497379E-05</v>
+        <v>2.686588116240785E-05</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25238979628854</v>
+        <v>0.2878250525481292</v>
       </c>
       <c r="K6">
-        <v>0.1817588516395414</v>
+        <v>0.1750436764003958</v>
       </c>
       <c r="L6">
-        <v>0.1131479310082923</v>
+        <v>0.1253584571305772</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02656296579960049</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1123563127443532</v>
       </c>
       <c r="O6">
-        <v>0.4218992694577111</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7844424862923205</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.069080448893246</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4230989376250633</v>
+      </c>
+      <c r="R6">
+        <v>0.7901737718542705</v>
+      </c>
+      <c r="S6">
+        <v>1.048811191264988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.402471278115058</v>
+        <v>1.379366939480207</v>
       </c>
       <c r="C7">
-        <v>0.3365042719821076</v>
+        <v>0.3496626735055202</v>
       </c>
       <c r="D7">
-        <v>0.1553696331243088</v>
+        <v>0.1566339583389578</v>
       </c>
       <c r="E7">
-        <v>0.1127632310333553</v>
+        <v>0.1125434621551342</v>
       </c>
       <c r="F7">
-        <v>0.5341952067060447</v>
+        <v>0.5253835751842857</v>
       </c>
       <c r="G7">
-        <v>0.284960096603136</v>
+        <v>0.2624533048272824</v>
       </c>
       <c r="H7">
-        <v>2.562647118953265E-07</v>
+        <v>1.908850651988203E-06</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2538415015428157</v>
+        <v>0.2855890517960376</v>
       </c>
       <c r="K7">
-        <v>0.1808312178108018</v>
+        <v>0.1736896966091628</v>
       </c>
       <c r="L7">
-        <v>0.1153240380512699</v>
+        <v>0.1236276631877828</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02660609992839813</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1143914517160667</v>
       </c>
       <c r="O7">
-        <v>0.4422074756643113</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7837757854825043</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.084655381446893</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4432729304198944</v>
+      </c>
+      <c r="R7">
+        <v>0.7916902544434947</v>
+      </c>
+      <c r="S7">
+        <v>1.060348623786496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.690468813295837</v>
+        <v>1.651780868110194</v>
       </c>
       <c r="C8">
-        <v>0.4017082631360154</v>
+        <v>0.4229801826722337</v>
       </c>
       <c r="D8">
-        <v>0.1739087932126751</v>
+        <v>0.1759015495840117</v>
       </c>
       <c r="E8">
-        <v>0.1236602294992473</v>
+        <v>0.1232710138702906</v>
       </c>
       <c r="F8">
-        <v>0.575791121256394</v>
+        <v>0.5618778514857468</v>
       </c>
       <c r="G8">
-        <v>0.3119361462730694</v>
+        <v>0.2927696732098397</v>
       </c>
       <c r="H8">
-        <v>0.0002747684548551899</v>
+        <v>0.0002200009271615677</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2609675155458646</v>
+        <v>0.2846799573607015</v>
       </c>
       <c r="K8">
-        <v>0.1775574287786199</v>
+        <v>0.1688288053459068</v>
       </c>
       <c r="L8">
-        <v>0.1248416647128145</v>
+        <v>0.1167577944169409</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02799568888888437</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1233216390735983</v>
       </c>
       <c r="O8">
-        <v>0.5317314926403256</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7822061956629653</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.157142213845674</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5326570150352268</v>
+      </c>
+      <c r="R8">
+        <v>0.7989906971216172</v>
+      </c>
+      <c r="S8">
+        <v>1.118795507553216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.253551750003055</v>
+        <v>2.185568461875903</v>
       </c>
       <c r="C9">
-        <v>0.5290125149304572</v>
+        <v>0.5694298315819708</v>
       </c>
       <c r="D9">
-        <v>0.2104611139288721</v>
+        <v>0.2134386328579723</v>
       </c>
       <c r="E9">
-        <v>0.1449627528585253</v>
+        <v>0.1441422948119921</v>
       </c>
       <c r="F9">
-        <v>0.6628281261806066</v>
+        <v>0.6406668611303843</v>
       </c>
       <c r="G9">
-        <v>0.3691721887932147</v>
+        <v>0.3462017689279122</v>
       </c>
       <c r="H9">
-        <v>0.002280785872714519</v>
+        <v>0.001981200533603733</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2777469167451869</v>
+        <v>0.298452908199053</v>
       </c>
       <c r="K9">
-        <v>0.1743346454685195</v>
+        <v>0.1625737490208046</v>
       </c>
       <c r="L9">
-        <v>0.1432564462125825</v>
+        <v>0.1053784309656525</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.03512205009707436</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1406313971033981</v>
       </c>
       <c r="O9">
-        <v>0.7071432741143013</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.784361548395978</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.314290306951676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7085345993450645</v>
+      </c>
+      <c r="R9">
+        <v>0.8172479192019182</v>
+      </c>
+      <c r="S9">
+        <v>1.253218004919177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.663214990790266</v>
+        <v>2.567658960447375</v>
       </c>
       <c r="C10">
-        <v>0.6197711498561773</v>
+        <v>0.6705663640659054</v>
       </c>
       <c r="D10">
-        <v>0.2324366521022228</v>
+        <v>0.2370871518100728</v>
       </c>
       <c r="E10">
-        <v>0.1549886166681809</v>
+        <v>0.1540807395714374</v>
       </c>
       <c r="F10">
-        <v>0.7206310743118323</v>
+        <v>0.6878654525519892</v>
       </c>
       <c r="G10">
-        <v>0.4091049328965113</v>
+        <v>0.4003077332996696</v>
       </c>
       <c r="H10">
-        <v>0.004811621840591584</v>
+        <v>0.00422728587229404</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2894048772784856</v>
+        <v>0.2854598567841862</v>
       </c>
       <c r="K10">
-        <v>0.172233208552516</v>
+        <v>0.1568226344010206</v>
       </c>
       <c r="L10">
-        <v>0.1502745604944025</v>
+        <v>0.097007417016858</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04187457013875218</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1468362464304036</v>
       </c>
       <c r="O10">
-        <v>0.8230598280034158</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7945095972443994</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.423810411272797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.823297809881872</v>
+      </c>
+      <c r="R10">
+        <v>0.8424240948449864</v>
+      </c>
+      <c r="S10">
+        <v>1.332603967348348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.818080888144323</v>
+        <v>2.70740681370512</v>
       </c>
       <c r="C11">
-        <v>0.6388302382760571</v>
+        <v>0.6821272007730954</v>
       </c>
       <c r="D11">
-        <v>0.2004640580998824</v>
+        <v>0.206217508044972</v>
       </c>
       <c r="E11">
-        <v>0.1165984021586475</v>
+        <v>0.1156577053685375</v>
       </c>
       <c r="F11">
-        <v>0.6622713502439908</v>
+        <v>0.6226331940189169</v>
       </c>
       <c r="G11">
-        <v>0.3829388111465022</v>
+        <v>0.4116034360347669</v>
       </c>
       <c r="H11">
-        <v>0.02328524945394861</v>
+        <v>0.02263107299481604</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2727711054568829</v>
+        <v>0.2303242973308386</v>
       </c>
       <c r="K11">
-        <v>0.155459106501084</v>
+        <v>0.1393448493368226</v>
       </c>
       <c r="L11">
-        <v>0.109458168707306</v>
+        <v>0.08838838669019644</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.03872369827490552</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1061756753779299</v>
       </c>
       <c r="O11">
-        <v>0.7641855543374021</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8471916447252426</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.333679492314133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.7614781000760971</v>
+      </c>
+      <c r="R11">
+        <v>0.9079656611350089</v>
+      </c>
+      <c r="S11">
+        <v>1.220792010868649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.861527758160321</v>
+        <v>2.747502370214818</v>
       </c>
       <c r="C12">
-        <v>0.6354757805395934</v>
+        <v>0.6724686789614225</v>
       </c>
       <c r="D12">
-        <v>0.1713186978672923</v>
+        <v>0.1768634088918475</v>
       </c>
       <c r="E12">
-        <v>0.09007827008065306</v>
+        <v>0.08886136174362491</v>
       </c>
       <c r="F12">
-        <v>0.6022344097354733</v>
+        <v>0.5622622352883084</v>
       </c>
       <c r="G12">
-        <v>0.3527301342613782</v>
+        <v>0.3983212007588861</v>
       </c>
       <c r="H12">
-        <v>0.06161766811393932</v>
+        <v>0.0609676178245806</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2562580895477566</v>
+        <v>0.202594637471087</v>
       </c>
       <c r="K12">
-        <v>0.1420626521396997</v>
+        <v>0.127065021317776</v>
       </c>
       <c r="L12">
-        <v>0.08934667701064569</v>
+        <v>0.08349204447034886</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03484455697733679</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.08636000089943519</v>
       </c>
       <c r="O12">
-        <v>0.6923625275845211</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8933857357918384</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.235116614093243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.68842918417117</v>
+      </c>
+      <c r="R12">
+        <v>0.9601326328280209</v>
+      </c>
+      <c r="S12">
+        <v>1.119371444091456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.821351914029719</v>
+        <v>2.715495643574627</v>
       </c>
       <c r="C13">
-        <v>0.6147181522834444</v>
+        <v>0.6475509475768035</v>
       </c>
       <c r="D13">
-        <v>0.1427879829188043</v>
+        <v>0.1469857257167888</v>
       </c>
       <c r="E13">
-        <v>0.07114231922160386</v>
+        <v>0.06954217688505793</v>
       </c>
       <c r="F13">
-        <v>0.5374884106678621</v>
+        <v>0.5032370306030245</v>
       </c>
       <c r="G13">
-        <v>0.3176075298344188</v>
+        <v>0.3584940645992702</v>
       </c>
       <c r="H13">
-        <v>0.1167905360531591</v>
+        <v>0.1162069069381744</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2388202730805489</v>
+        <v>0.1950387226619981</v>
       </c>
       <c r="K13">
-        <v>0.1303630355899266</v>
+        <v>0.1181333244596026</v>
       </c>
       <c r="L13">
-        <v>0.08375471025306336</v>
+        <v>0.08079130483738162</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.03045878604036645</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.08119058029082638</v>
       </c>
       <c r="O13">
-        <v>0.6069658927350474</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9361706446811127</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.124114167929207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6034350982313015</v>
+      </c>
+      <c r="R13">
+        <v>1.001478188074756</v>
+      </c>
+      <c r="S13">
+        <v>1.023347755784172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.755449971045834</v>
+        <v>2.6603578970022</v>
       </c>
       <c r="C14">
-        <v>0.5924055154140433</v>
+        <v>0.6231979025600367</v>
       </c>
       <c r="D14">
-        <v>0.123600122134107</v>
+        <v>0.12652035007698</v>
       </c>
       <c r="E14">
-        <v>0.06243999952364154</v>
+        <v>0.06061672161680676</v>
       </c>
       <c r="F14">
-        <v>0.4906784026321702</v>
+        <v>0.4626319733249815</v>
       </c>
       <c r="G14">
-        <v>0.2911037848251681</v>
+        <v>0.3203630149641725</v>
       </c>
       <c r="H14">
-        <v>0.1656610313104778</v>
+        <v>0.1651456154430235</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2263196070877456</v>
+        <v>0.1972341583866069</v>
       </c>
       <c r="K14">
-        <v>0.1230646992758153</v>
+        <v>0.1133181448761444</v>
       </c>
       <c r="L14">
-        <v>0.08840162977326749</v>
+        <v>0.07974727662893599</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.02725756735120477</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.08617692368966345</v>
       </c>
       <c r="O14">
-        <v>0.5419787075968401</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.96459067919821</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.041691159988119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.539325605488429</v>
+      </c>
+      <c r="R14">
+        <v>1.025251144354101</v>
+      </c>
+      <c r="S14">
+        <v>0.9581801950639743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.721703936037386</v>
+        <v>2.631438136757481</v>
       </c>
       <c r="C15">
-        <v>0.5833314263285843</v>
+        <v>0.613942644563565</v>
       </c>
       <c r="D15">
-        <v>0.1187798067892771</v>
+        <v>0.1212498588690778</v>
       </c>
       <c r="E15">
-        <v>0.06090619002465836</v>
+        <v>0.05905445744876614</v>
       </c>
       <c r="F15">
-        <v>0.4781720540887022</v>
+        <v>0.4525848128659931</v>
       </c>
       <c r="G15">
-        <v>0.2836027797701632</v>
+        <v>0.3066651204202913</v>
       </c>
       <c r="H15">
-        <v>0.1779664142079298</v>
+        <v>0.1774815314773548</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2230960475309516</v>
+        <v>0.2010413982743628</v>
       </c>
       <c r="K15">
-        <v>0.1216098658709281</v>
+        <v>0.1127113895572691</v>
       </c>
       <c r="L15">
-        <v>0.09052797413707836</v>
+        <v>0.07984820443782059</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.02637903928185104</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.08841624460586672</v>
       </c>
       <c r="O15">
-        <v>0.5231157670367352</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.9701086026735624</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.019005236825819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5209201979973912</v>
+      </c>
+      <c r="R15">
+        <v>1.028083494001208</v>
+      </c>
+      <c r="S15">
+        <v>0.9426094695414236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.553882623407276</v>
+        <v>2.482588764919399</v>
       </c>
       <c r="C16">
-        <v>0.5489927806210915</v>
+        <v>0.5816039170814236</v>
       </c>
       <c r="D16">
-        <v>0.1158394228956183</v>
+        <v>0.1170403450691779</v>
       </c>
       <c r="E16">
-        <v>0.06087894824420648</v>
+        <v>0.05919517628185789</v>
       </c>
       <c r="F16">
-        <v>0.4672094004809253</v>
+        <v>0.4499500246198238</v>
       </c>
       <c r="G16">
-        <v>0.2737319018061228</v>
+        <v>0.2691799194340945</v>
       </c>
       <c r="H16">
-        <v>0.1642318619755088</v>
+        <v>0.1638831384326522</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2215817775552296</v>
+        <v>0.2309642572546906</v>
       </c>
       <c r="K16">
-        <v>0.1246054324212764</v>
+        <v>0.1179098853229625</v>
       </c>
       <c r="L16">
-        <v>0.08863059136842821</v>
+        <v>0.08333897663105283</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.02527553306683927</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.08682685138909463</v>
       </c>
       <c r="O16">
-        <v>0.493114227701156</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9538983606965701</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9947203893727448</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.4929818033531461</v>
+      </c>
+      <c r="R16">
+        <v>0.9990081160452462</v>
+      </c>
+      <c r="S16">
+        <v>0.9436065531952664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.460388933687454</v>
+        <v>2.396311076437769</v>
       </c>
       <c r="C17">
-        <v>0.5344788018563804</v>
+        <v>0.5687664542074344</v>
       </c>
       <c r="D17">
-        <v>0.1234334532569505</v>
+        <v>0.1243485985310713</v>
       </c>
       <c r="E17">
-        <v>0.06470604835936822</v>
+        <v>0.06317578676410651</v>
       </c>
       <c r="F17">
-        <v>0.483451543399255</v>
+        <v>0.4687723570169027</v>
       </c>
       <c r="G17">
-        <v>0.280213468328796</v>
+        <v>0.2638238296607156</v>
       </c>
       <c r="H17">
-        <v>0.1259484956275116</v>
+        <v>0.1256609666781543</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2270864746790053</v>
+        <v>0.250712637278049</v>
       </c>
       <c r="K17">
-        <v>0.1308206753983434</v>
+        <v>0.1244196631221381</v>
       </c>
       <c r="L17">
-        <v>0.08333995678133732</v>
+        <v>0.08678795599922928</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02598246737189314</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.08158592745386883</v>
       </c>
       <c r="O17">
-        <v>0.5039686594554809</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.926720846088287</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.019875164302618</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5047600395891507</v>
+      </c>
+      <c r="R17">
+        <v>0.9659960292219125</v>
+      </c>
+      <c r="S17">
+        <v>0.9770916669531005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.419730553257807</v>
+        <v>2.355963207118521</v>
       </c>
       <c r="C18">
-        <v>0.535292130986079</v>
+        <v>0.5725546173466682</v>
       </c>
       <c r="D18">
-        <v>0.1423038857037255</v>
+        <v>0.1434631345723645</v>
       </c>
       <c r="E18">
-        <v>0.07624804518085959</v>
+        <v>0.07485034269248025</v>
       </c>
       <c r="F18">
-        <v>0.5258815653996365</v>
+        <v>0.5105877349354202</v>
       </c>
       <c r="G18">
-        <v>0.3017429569588899</v>
+        <v>0.2790040261845235</v>
       </c>
       <c r="H18">
-        <v>0.07306632419657433</v>
+        <v>0.0727909315299442</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2392949069330399</v>
+        <v>0.2686570965667272</v>
       </c>
       <c r="K18">
-        <v>0.1406767800806286</v>
+        <v>0.133332738881565</v>
       </c>
       <c r="L18">
-        <v>0.0821813145070999</v>
+        <v>0.09080180407352145</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.028401289007153</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08026293381635188</v>
       </c>
       <c r="O18">
-        <v>0.552780905915462</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.888477974936535</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.091024833018309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5541026266679125</v>
+      </c>
+      <c r="R18">
+        <v>0.9255631685907133</v>
+      </c>
+      <c r="S18">
+        <v>1.047313421169946</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.424223402875953</v>
+        <v>2.356156860899205</v>
       </c>
       <c r="C19">
-        <v>0.5484100200627893</v>
+        <v>0.5900728748117672</v>
       </c>
       <c r="D19">
-        <v>0.1710446802762249</v>
+        <v>0.1728115656990212</v>
       </c>
       <c r="E19">
-        <v>0.09913353499629629</v>
+        <v>0.09786025130619969</v>
       </c>
       <c r="F19">
-        <v>0.5882624463209822</v>
+        <v>0.5702218445184357</v>
       </c>
       <c r="G19">
-        <v>0.3345719501085256</v>
+        <v>0.307992369362907</v>
       </c>
       <c r="H19">
-        <v>0.02827213000544759</v>
+        <v>0.02796197784672216</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2562689419905269</v>
+        <v>0.2864299620377651</v>
       </c>
       <c r="K19">
-        <v>0.1531665683955765</v>
+        <v>0.1440018150384255</v>
       </c>
       <c r="L19">
-        <v>0.09579424259522185</v>
+        <v>0.09510616122727278</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.03221021695202175</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09352080390540607</v>
       </c>
       <c r="O19">
-        <v>0.631475754683116</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.846110831303065</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.196160817146307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6331466409043429</v>
+      </c>
+      <c r="R19">
+        <v>0.8831517951412593</v>
+      </c>
+      <c r="S19">
+        <v>1.145495730167823</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.555524694803012</v>
+        <v>2.470716189640541</v>
       </c>
       <c r="C20">
-        <v>0.5958538000966485</v>
+        <v>0.6461075820648432</v>
       </c>
       <c r="D20">
-        <v>0.2264452284058649</v>
+        <v>0.2300398179527576</v>
       </c>
       <c r="E20">
-        <v>0.15211585969179</v>
+        <v>0.1510845248860271</v>
       </c>
       <c r="F20">
-        <v>0.7047599617385671</v>
+        <v>0.6775671828053973</v>
       </c>
       <c r="G20">
-        <v>0.3981728652365746</v>
+        <v>0.3753643598850829</v>
       </c>
       <c r="H20">
-        <v>0.004049617540268446</v>
+        <v>0.003559792186261124</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2860971508827674</v>
+        <v>0.301984218633919</v>
       </c>
       <c r="K20">
-        <v>0.1725438473459526</v>
+        <v>0.1589058658253464</v>
       </c>
       <c r="L20">
-        <v>0.1481562839451342</v>
+        <v>0.09936805866340137</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04022045267068641</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1449747583904966</v>
       </c>
       <c r="O20">
-        <v>0.7920862836740596</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7917759000677052</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.393592002677025</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.7934822600622837</v>
+      </c>
+      <c r="R20">
+        <v>0.8338532188369356</v>
+      </c>
+      <c r="S20">
+        <v>1.318320515533628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.87537776993122</v>
+        <v>2.749683503171582</v>
       </c>
       <c r="C21">
-        <v>0.6693599599309152</v>
+        <v>0.716853470034664</v>
       </c>
       <c r="D21">
-        <v>0.2511985375405175</v>
+        <v>0.2596271015875971</v>
       </c>
       <c r="E21">
-        <v>0.1685407542138968</v>
+        <v>0.1683097007088072</v>
       </c>
       <c r="F21">
-        <v>0.7659890359301897</v>
+        <v>0.7149856870960392</v>
       </c>
       <c r="G21">
-        <v>0.4380657766675142</v>
+        <v>0.4831365940851953</v>
       </c>
       <c r="H21">
-        <v>0.00638147629592023</v>
+        <v>0.005542926071146537</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2997323741853535</v>
+        <v>0.2329693744918941</v>
       </c>
       <c r="K21">
-        <v>0.1746864677405533</v>
+        <v>0.1534840451876747</v>
       </c>
       <c r="L21">
-        <v>0.163461483783351</v>
+        <v>0.09282478035061636</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.04551658853193175</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1593417411408851</v>
       </c>
       <c r="O21">
-        <v>0.9013117372955293</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7929478168092601</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.507056312174086</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.8972559543901895</v>
+      </c>
+      <c r="R21">
+        <v>0.8566836801891213</v>
+      </c>
+      <c r="S21">
+        <v>1.364064941688525</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.082715640215042</v>
+        <v>2.928626713957385</v>
       </c>
       <c r="C22">
-        <v>0.7161067916460695</v>
+        <v>0.7603761492325418</v>
       </c>
       <c r="D22">
-        <v>0.2648548629161667</v>
+        <v>0.276795419647172</v>
       </c>
       <c r="E22">
-        <v>0.1764224194969337</v>
+        <v>0.1768209858121494</v>
       </c>
       <c r="F22">
-        <v>0.8017929508294372</v>
+        <v>0.7339911892995588</v>
       </c>
       <c r="G22">
-        <v>0.4621978339123558</v>
+        <v>0.5607784526554553</v>
       </c>
       <c r="H22">
-        <v>0.008137327493483781</v>
+        <v>0.007037245202296816</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3077440877912778</v>
+        <v>0.1923074106918961</v>
       </c>
       <c r="K22">
-        <v>0.1755834493387773</v>
+        <v>0.1491770258382132</v>
       </c>
       <c r="L22">
-        <v>0.1701904736934523</v>
+        <v>0.08849476715273141</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0488794026820436</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1655018943797089</v>
       </c>
       <c r="O22">
-        <v>0.9661429306382416</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7970116306467503</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.575205742550679</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.958006579225696</v>
+      </c>
+      <c r="R22">
+        <v>0.876215833189363</v>
+      </c>
+      <c r="S22">
+        <v>1.384496303187177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.972041873101375</v>
+        <v>2.835685372897728</v>
       </c>
       <c r="C23">
-        <v>0.6911570105959584</v>
+        <v>0.7388336608491386</v>
       </c>
       <c r="D23">
-        <v>0.2575610997229063</v>
+        <v>0.2671378711857386</v>
       </c>
       <c r="E23">
-        <v>0.1722138956570518</v>
+        <v>0.1721522142694738</v>
       </c>
       <c r="F23">
-        <v>0.7825992732978193</v>
+        <v>0.725833988276861</v>
       </c>
       <c r="G23">
-        <v>0.4492480765965325</v>
+        <v>0.5102957421499923</v>
       </c>
       <c r="H23">
-        <v>0.007177083719296318</v>
+        <v>0.006229321316027103</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3034280404909993</v>
+        <v>0.2202088820885635</v>
       </c>
       <c r="K23">
-        <v>0.1750591743304142</v>
+        <v>0.1520051352950276</v>
       </c>
       <c r="L23">
-        <v>0.1665986299955051</v>
+        <v>0.0909554899190006</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04730232549161073</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1622357124670089</v>
       </c>
       <c r="O23">
-        <v>0.9315319369599351</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7947733429658257</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.538601433482597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9262287651554786</v>
+      </c>
+      <c r="R23">
+        <v>0.8642379700047371</v>
+      </c>
+      <c r="S23">
+        <v>1.379238963941617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.553116775462172</v>
+        <v>2.468135674236805</v>
       </c>
       <c r="C24">
-        <v>0.596653909004317</v>
+        <v>0.6473828231322045</v>
       </c>
       <c r="D24">
-        <v>0.2300430132386282</v>
+        <v>0.2336899637814724</v>
       </c>
       <c r="E24">
-        <v>0.1563115082779412</v>
+        <v>0.1552944395470277</v>
       </c>
       <c r="F24">
-        <v>0.7116963395527165</v>
+        <v>0.6843068714142717</v>
       </c>
       <c r="G24">
-        <v>0.4016822033012062</v>
+        <v>0.3780707355432611</v>
       </c>
       <c r="H24">
-        <v>0.004029469336703451</v>
+        <v>0.003533623721536205</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2879350361838107</v>
+        <v>0.3044201703790321</v>
       </c>
       <c r="K24">
-        <v>0.1740440615100667</v>
+        <v>0.1602270973746229</v>
       </c>
       <c r="L24">
-        <v>0.1529985144181794</v>
+        <v>0.09993317167462656</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04064220573029154</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1497721197163173</v>
       </c>
       <c r="O24">
-        <v>0.8006310527122551</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7877823212018455</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.404877482137465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8020946034740177</v>
+      </c>
+      <c r="R24">
+        <v>0.8296190816693922</v>
+      </c>
+      <c r="S24">
+        <v>1.329177126934127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.101346476481979</v>
+        <v>2.042841156478119</v>
       </c>
       <c r="C25">
-        <v>0.4946228864540387</v>
+        <v>0.5306207375361112</v>
       </c>
       <c r="D25">
-        <v>0.20054572548203</v>
+        <v>0.2030027097540028</v>
       </c>
       <c r="E25">
-        <v>0.1392020111379679</v>
+        <v>0.1384377800184815</v>
       </c>
       <c r="F25">
-        <v>0.638642306781783</v>
+        <v>0.6199083956535461</v>
       </c>
       <c r="G25">
-        <v>0.3531751579866409</v>
+        <v>0.3272441387695437</v>
       </c>
       <c r="H25">
-        <v>0.001565276917320446</v>
+        <v>0.001351039827128808</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2728855826942436</v>
+        <v>0.3000990761501185</v>
       </c>
       <c r="K25">
-        <v>0.1748394709956465</v>
+        <v>0.1642954172342641</v>
       </c>
       <c r="L25">
-        <v>0.1382957454336449</v>
+        <v>0.1084138532745289</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03283674720379004</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1359886679545781</v>
       </c>
       <c r="O25">
-        <v>0.659684984644592</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7831880739231423</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.270022193323939</v>
+        <v>0.6612959808451677</v>
+      </c>
+      <c r="R25">
+        <v>0.8109852953747421</v>
+      </c>
+      <c r="S25">
+        <v>1.218569350122067</v>
       </c>
     </row>
   </sheetData>
